--- a/NIPC Software.xlsx
+++ b/NIPC Software.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyComputer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyComputer\Desktop\Note\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41765B8E-7B00-43D7-923B-C6E443DAA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD752121-3C2B-4343-BF51-62A874CE2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>اسم دوره</t>
   </si>
@@ -127,6 +127,36 @@
   </si>
   <si>
     <t>آشنایی با روش های بهینه سازی مصرف انرژی</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>FHTC</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>STC</t>
+  </si>
+  <si>
+    <t>STuTC</t>
+  </si>
+  <si>
+    <t>VTC</t>
+  </si>
+  <si>
+    <t>SED</t>
   </si>
 </sst>
 </file>
@@ -178,42 +208,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -255,36 +254,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -579,326 +637,346 @@
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21.75">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:5" ht="22.5" thickBot="1">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="21.75">
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" ht="21.75">
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:5" ht="21.75">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" ht="21.75">
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="21.75">
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="21.75">
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="21.75">
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="21.75">
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="21.75">
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="21.75">
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21.75">
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="21.75">
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="21.75">
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" ht="21.75">
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="21.75">
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="21.75">
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="21.75">
-      <c r="B18" s="6">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="21.75">
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="21.75">
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="21.75">
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="21.75">
-      <c r="B22" s="6">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="21.75">
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="21.75">
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="21.75">
-      <c r="B25" s="6">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="21.75">
-      <c r="B26" s="6">
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="21.75">
-      <c r="B27" s="6">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="21.75">
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="21.75">
-      <c r="B29" s="6">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="21.75">
-      <c r="B30" s="6">
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" thickBot="1">
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>30</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
+      <c r="A32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NIPC Software.xlsx
+++ b/NIPC Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyComputer\Desktop\Note\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD752121-3C2B-4343-BF51-62A874CE2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B09116-A8A4-4128-A931-52A4DA56B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>اسم دوره</t>
   </si>
@@ -157,6 +157,66 @@
   </si>
   <si>
     <t>SED</t>
+  </si>
+  <si>
+    <t>IPTC</t>
+  </si>
+  <si>
+    <t>EjTC</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>اسم نداشت</t>
+  </si>
+  <si>
+    <t>PIPING Multimedia Software</t>
+  </si>
+  <si>
+    <t>Heat Exchegar Design</t>
+  </si>
+  <si>
+    <t>COMFARIII</t>
+  </si>
+  <si>
+    <t>Aspen Plus training</t>
+  </si>
+  <si>
+    <t>HYSYS Dynamic Training</t>
+  </si>
+  <si>
+    <t>HYSYS TRAINING</t>
+  </si>
+  <si>
+    <t>UtilityTS</t>
+  </si>
+  <si>
+    <t>PCPP</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>Reactor Training</t>
+  </si>
+  <si>
+    <t>CTTC</t>
+  </si>
+  <si>
+    <t>Drawing Courses</t>
+  </si>
+  <si>
+    <t>HEAT EXCHENGER</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>GTTC</t>
+  </si>
+  <si>
+    <t>STTC</t>
   </si>
 </sst>
 </file>
@@ -166,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +409,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,21 +696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="22.5" thickBot="1">
+    <row r="1" spans="2:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
@@ -655,37 +724,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="21.75">
+    <row r="2" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="21.75">
+    <row r="3" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="21.75">
+    <row r="4" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="21.75">
+    <row r="5" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -697,7 +772,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="21.75">
+    <row r="6" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -709,27 +784,31 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="21.75">
+    <row r="7" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="21.75">
+    <row r="8" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" ht="21.75">
+    <row r="9" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -741,17 +820,19 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" ht="21.75">
+    <row r="10" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="21.75">
+    <row r="11" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -763,27 +844,31 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="21.75">
+    <row r="12" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" ht="21.75">
+    <row r="13" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="21.75">
+    <row r="14" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -795,17 +880,19 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" ht="21.75">
+    <row r="15" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="21.75">
+    <row r="16" spans="2:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -817,17 +904,19 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="21.75">
+    <row r="17" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="21.75">
+    <row r="18" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -839,27 +928,31 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="21.75">
+    <row r="19" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="21.75">
+    <row r="20" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="21.75">
+    <row r="21" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B21" s="2">
         <v>20</v>
       </c>
@@ -871,7 +964,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="21.75">
+    <row r="22" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -883,47 +976,55 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="21.75">
+    <row r="23" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="21.75">
+    <row r="24" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B24" s="2">
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="21.75">
+    <row r="25" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B25" s="2">
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="21.75">
+    <row r="26" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B26" s="2">
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="21.75">
+    <row r="27" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -935,47 +1036,55 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="21.75">
+    <row r="28" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B28" s="2">
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="21.75">
+    <row r="29" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B29" s="2">
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="21.75">
+    <row r="30" spans="1:5" ht="21.75" x14ac:dyDescent="0.6">
       <c r="B30" s="2">
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="22.5" thickBot="1">
+    <row r="31" spans="1:5" ht="22.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B31" s="8">
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
   </sheetData>
